--- a/input_data/data_errors_12/proporcionalidades.xlsx
+++ b/input_data/data_errors_12/proporcionalidades.xlsx
@@ -318,7 +318,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topLeft" activeCell="Z5" activeCellId="0" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
